--- a/Comm100-Work/面试资料/研发面试评估表_高级开发工程师.xlsx
+++ b/Comm100-Work/面试资料/研发面试评估表_高级开发工程师.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyDocument\Comm100-Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hejia/GitHub/MyDocument/Comm100-Work/面试资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="高级开发工程师" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -119,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,22 +743,22 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="44.875" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="44.125" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="3" spans="2:7" ht="30" customHeight="1">
+    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -775,65 +778,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5">
+    <row r="4" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>15</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" ht="16.5">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" ht="16.5">
+      <c r="G5" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:7" ht="16.5">
+      <c r="G6" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
       <c r="D7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" ht="16.5">
+    <row r="8" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>22</v>
       </c>
@@ -841,76 +868,86 @@
       <c r="F8" s="1"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5">
+    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="2:7" ht="16.5">
+    <row r="10" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="2:7" ht="16.5">
+    <row r="11" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="2:7" ht="16.5">
+    <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="2:7" ht="16.5">
+    <row r="13" spans="2:7" ht="17" x14ac:dyDescent="0.15">
       <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="17.25" thickBot="1">
+    <row r="14" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="10">
         <f>SUM(C4:C13)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="12">
         <f>SUM(E4:E13)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="13">
         <f>SUM(G4:G13)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
